--- a/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
@@ -451,519 +451,699 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>147.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8178</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4733</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>519056</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>海富通内需热点混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>87.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6718</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5465</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>519015</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>海富通精选贰号混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>77.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>78.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>009239</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>融通中证人工智能主题指数(LOF)C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>94.69</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159819</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512480</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512760</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰CES半导体行业ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512930</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>99.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>161631</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161631</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
+          <t>华夏上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>181.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009239</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
+          <t>国联安中证全指半导体产品与设备ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519056</t>
+          <t>588080</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通内需热点混合</t>
+          <t>易方达上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75.46</t>
+          <t>60.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519015</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通精选贰号混合</t>
+          <t>国泰CES半导体行业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69.79</t>
+          <t>111.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>588090</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>40.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006366</t>
+          <t>588050</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴业安保优选混合</t>
+          <t>工银瑞信上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>37.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2563</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010220</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合A</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3802</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010221</t>
+          <t>010286</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合C</t>
+          <t>海富通成长价值混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010286</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海富通成长价值混合A</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010287</t>
+          <t>519011</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海富通成长价值混合C</t>
+          <t>海富通精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5365</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>010220</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>海富通消费核心资产混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>519056</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>海富通内需热点混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98.98</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>75.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>161631</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
+          <t>融通中证人工智能主题指数(LOF)A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>98.65</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>519015</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰CES半导体行业ETF</t>
+          <t>海富通精选贰号混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>69.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1416,15 +1746,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>99.47</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.28</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>519011</t>
+          <t>010287</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海富通精选混合</t>
+          <t>海富通成长价值混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>69.61</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001970</t>
+          <t>006366</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合A</t>
+          <t>兴业安保优选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>010221</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>海富通消费核心资产混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华夏上证科创板50成份ETF</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>588050</t>
+          <t>009239</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
+          <t>融通中证人工智能主题指数(LOF)C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>99.20</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>588080</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达上证科创板50成份ETF</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1602,26 +2002,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>588090</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>99.78</t>
-        </is>
-      </c>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2010,7 +2011,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -2026,6 +2026,1082 @@
       </c>
       <c r="H23" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9091</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4749</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3107,4 +3108,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1650</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3883</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8689</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6466</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7599</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4000,4 +4001,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4009,7 +4010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4020,17 +4021,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4040,14 +4061,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.97</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4056,14 +4099,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.64</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4072,14 +4137,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.5</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4088,13 +4175,4552 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4298</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5819</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5132</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4978</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0569</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9204</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8225</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6790</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6790</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6393</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3962</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2487</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2263</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1897</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1658</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7326</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7088</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6874</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6575</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4874</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4720</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4698</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4670</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4535</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4424</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3400</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80.31999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>38.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8619,7 +8620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8630,17 +8631,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8650,14 +8671,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="n">
-        <v>80.31999999999999</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8666,14 +8709,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.97</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8682,14 +8747,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.64</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8698,14 +8785,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.5</v>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9475</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -8714,13 +8823,4758 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5921</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9746</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9607</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9314</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8452</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7378</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6175</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6134</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4715</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4608</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4439</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3461</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2381</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2179</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1391</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0682</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9727</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9119</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>50.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9093</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7488</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6001</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4744</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3238</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>126</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.31999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>38.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13457,7 +13458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13468,17 +13469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13488,14 +13509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>126</v>
-      </c>
-      <c r="D2" t="n">
-        <v>67.59</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -13504,14 +13547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>120</v>
-      </c>
-      <c r="D3" t="n">
-        <v>80.31999999999999</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3652</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -13520,14 +13585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.97</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -13536,14 +13623,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.64</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -13552,14 +13661,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32.5</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2820</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -13568,13 +13699,2119 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7579</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3199</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3132</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2722</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2536</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1791</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1413</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1413</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0944</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9584</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9569</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9120</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7326</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4659</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4317</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.31999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>38.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>45.21</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>67.59</v>
+        <v>45.21</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D4" t="n">
-        <v>80.31999999999999</v>
+        <v>67.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>34.97</v>
+        <v>80.31999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>23.64</v>
+        <v>34.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>32.5</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>38.84</v>
       </c>
     </row>
@@ -600,6 +617,3212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>293.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8424</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0990</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0434</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9684</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8496</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4637</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4623</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4539</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4489</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4345</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013680</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013861</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013681</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013862</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011359</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城优选添利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011360</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城优选添利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.02</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2819,7 +6042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7656,7 +10879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12265,7 +15488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13157,7 +16380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14233,7 +17456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15118,7 +18341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688008-澜起科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="D2" t="n">
-        <v>31.73</v>
+        <v>119.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>45.21</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>67.59</v>
+        <v>45.21</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D5" t="n">
-        <v>80.31999999999999</v>
+        <v>67.59</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>34.97</v>
+        <v>80.31999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>23.64</v>
+        <v>34.97</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>32.5</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,732 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>38.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>147.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8178</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4733</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6718</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5465</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1336,7406 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H195"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>26.9383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>169.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.3856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>204.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.2621</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.4886</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>205.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.4060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>145.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.1752</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.5158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>72.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5286</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9368</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7960</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7053</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2788</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2523</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0647</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9301</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8804</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8419</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016464</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴证全球合瑞混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8114</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6880</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6033</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5927</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5846</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4991</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016465</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴证全球合瑞混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4223</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定开混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>588200</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>588290</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013861</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>561100</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富国中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015443</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013862</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东方红新海混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>561310</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国泰中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>012669</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>159779</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>招商中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012670</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>159769</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>银华中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>015491</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>015967</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>014975</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华安科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>015968</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>014970</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>017458</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>015444</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3822,7 +11941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6042,7 +14161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10879,7 +18998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15488,7 +23607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16380,7 +24499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17456,7 +25575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18339,706 +26458,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>124.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.7546</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512480</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>105.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.6992</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>65.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.0775</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512760</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰CES半导体行业ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>147.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.0007</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>49.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.8726</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>49.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.8187</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>33.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.8178</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159819</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>47.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.4733</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519056</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>海富通内需热点混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6718</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519011</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>海富通精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>16.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5465</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4569</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161631</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2969</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519015</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>海富通精选贰号混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>77.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1867</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512930</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>平安中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>99.09</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009239</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>